--- a/nyc-population-structured-references.xlsx
+++ b/nyc-population-structured-references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1903E4B-D309-4B06-8F35-0E2DEE5C0939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366ED38-C24A-49A4-A0D7-F77B66166BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{326FC23B-9ECD-4C7C-A184-4590F8E676E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>The Bronx</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>borough</t>
+  </si>
+  <si>
+    <t>Classic reference</t>
+  </si>
+  <si>
+    <t>Structured reference</t>
+  </si>
+  <si>
+    <t>density</t>
   </si>
 </sst>
 </file>
@@ -102,7 +111,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -120,12 +132,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}" name="nyc" displayName="nyc" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}" name="nyc" displayName="nyc" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C9B35873-8D30-48E0-9CEE-3EC66E8FDBF7}" name="borough"/>
-    <tableColumn id="2" xr3:uid="{DB5F846B-3611-4079-A6AE-7CB1953A36E6}" name="population" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DB5F846B-3611-4079-A6AE-7CB1953A36E6}" name="population" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{54E2E2AE-19AF-4846-9A1D-03AFAEAE8BD9}" name="area"/>
+    <tableColumn id="4" xr3:uid="{D423F63C-726C-4BF2-BB2D-72BDFC31D320}" name="density" dataDxfId="0">
+      <calculatedColumnFormula>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,19 +443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1C1E6E-2093-4C2A-BD08-C51CECCC04D0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -450,8 +467,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,8 +481,12 @@
       <c r="C2">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
+        <v>34897.014218009477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -472,8 +496,12 @@
       <c r="C3">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
+        <v>39424.697406340056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -483,8 +511,12 @@
       <c r="C4">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
+        <v>74637.136563876658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -494,8 +526,12 @@
       <c r="C5">
         <v>108.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
+        <v>22129.383624655013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -504,6 +540,36 @@
       </c>
       <c r="C6">
         <v>57.5</v>
+      </c>
+      <c r="D6">
+        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
+        <v>8621.6869565217385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>8804202</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B9)</f>
+        <v>=SUM(B2:B6)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM(nyc[population])</f>
+        <v>8804202</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
+        <v>=SUM(nyc[population])</v>
       </c>
     </row>
   </sheetData>

--- a/nyc-population-structured-references.xlsx
+++ b/nyc-population-structured-references.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D366ED38-C24A-49A4-A0D7-F77B66166BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C8D5C5-1C41-4222-91C6-005D84AC5298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{326FC23B-9ECD-4C7C-A184-4590F8E676E4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{326FC23B-9ECD-4C7C-A184-4590F8E676E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="nyc-pop" sheetId="1" r:id="rId1"/>
+    <sheet name="structured-vs-unstructured" sheetId="2" r:id="rId1"/>
+    <sheet name="nyc-pop" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="my_range">'structured-vs-unstructured'!$B$2:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>The Bronx</t>
   </si>
@@ -62,13 +66,10 @@
     <t>borough</t>
   </si>
   <si>
-    <t>Classic reference</t>
-  </si>
-  <si>
     <t>Structured reference</t>
   </si>
   <si>
-    <t>density</t>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
@@ -111,10 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -132,15 +130,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}" name="nyc" displayName="nyc" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}" name="nyc" displayName="nyc" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{2C4BC823-E9A4-4FA5-AC3B-1CF60C62D1A1}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C9B35873-8D30-48E0-9CEE-3EC66E8FDBF7}" name="borough"/>
-    <tableColumn id="2" xr3:uid="{DB5F846B-3611-4079-A6AE-7CB1953A36E6}" name="population" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{DB5F846B-3611-4079-A6AE-7CB1953A36E6}" name="population" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{54E2E2AE-19AF-4846-9A1D-03AFAEAE8BD9}" name="area"/>
-    <tableColumn id="4" xr3:uid="{D423F63C-726C-4BF2-BB2D-72BDFC31D320}" name="density" dataDxfId="0">
-      <calculatedColumnFormula>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -442,11 +437,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3922F93-B692-4B40-952D-5E2E4E672D12}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <f>SUM(my_range)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D4)</f>
+        <v>=SUM(my_range)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1C1E6E-2093-4C2A-BD08-C51CECCC04D0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -454,10 +493,9 @@
     <col min="1" max="1" width="17.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -467,11 +505,8 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,12 +516,8 @@
       <c r="C2">
         <v>42.2</v>
       </c>
-      <c r="D2">
-        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
-        <v>34897.014218009477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -496,12 +527,8 @@
       <c r="C3">
         <v>69.400000000000006</v>
       </c>
-      <c r="D3">
-        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
-        <v>39424.697406340056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -511,12 +538,8 @@
       <c r="C4">
         <v>22.7</v>
       </c>
-      <c r="D4">
-        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
-        <v>74637.136563876658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -526,12 +549,8 @@
       <c r="C5">
         <v>108.7</v>
       </c>
-      <c r="D5">
-        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
-        <v>22129.383624655013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -541,34 +560,17 @@
       <c r="C6">
         <v>57.5</v>
       </c>
-      <c r="D6">
-        <f>nyc[[#This Row],[population]] / nyc[[#This Row],[area]]</f>
-        <v>8621.6869565217385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <f>SUM(B2:B6)</f>
+        <f>SUM(nyc[population])</f>
         <v>8804202</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B9)</f>
-        <v>=SUM(B2:B6)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f>SUM(nyc[population])</f>
-        <v>8804202</v>
-      </c>
-      <c r="C10" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
         <v>=SUM(nyc[population])</v>
       </c>
     </row>
